--- a/xlsx/医学_intext.xlsx
+++ b/xlsx/医学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
   <si>
     <t>医学</t>
   </si>
@@ -26,16 +26,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_医学</t>
+    <t>政策_政策_美国_医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>基礎醫學</t>
+    <t>基础医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
@@ -53,13 +50,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8</t>
   </si>
   <si>
-    <t>組織學</t>
+    <t>组织学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>胚胎學</t>
+    <t>胚胎学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E5%AF%84%E7%94%9F%E8%99%AB%E5%AD%A6</t>
@@ -71,13 +68,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>免疫學</t>
+    <t>免疫学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>病理學</t>
+    <t>病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E7%94%9F%E7%90%86%E5%AD%A6</t>
@@ -89,73 +86,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>細胞學</t>
+    <t>细胞学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>營養學</t>
+    <t>营养学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>藥理學</t>
+    <t>药理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>毒理學</t>
+    <t>毒理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>內科學</t>
+    <t>内科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E9%BC%BB%E5%96%89%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>耳鼻喉科學</t>
+    <t>耳鼻喉科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>眼科學</t>
+    <t>眼科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>心臟病學</t>
+    <t>心脏病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔醫學</t>
+    <t>胸腔医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%83%E8%85%B8%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>胃腸病學</t>
+    <t>胃肠病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F%E7%A7%91</t>
   </si>
   <si>
-    <t>腎臟科</t>
+    <t>肾脏科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%97%85%E5%AD%A6</t>
@@ -167,19 +164,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳染病學</t>
+    <t>传染病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>腫瘤學</t>
+    <t>肿瘤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>內分泌學</t>
+    <t>内分泌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%B9%BF%E7%97%85%E5%AD%A6</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>兒童醫學</t>
+    <t>儿童医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人醫學</t>
+    <t>老人医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>皮膚病學</t>
+    <t>皮肤病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%9C%BC%E7%A7%91%E5%AD%A6</t>
@@ -221,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神經外科</t>
+    <t>神经外科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E5%A4%96%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔外科學</t>
+    <t>胸腔外科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%84%8F%E5%A4%96%E7%A7%91</t>
@@ -257,73 +254,73 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦產科學</t>
+    <t>妇产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦科學</t>
+    <t>妇科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>產科學</t>
+    <t>产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>解剖學</t>
+    <t>解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>預防醫學</t>
+    <t>预防医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床醫學</t>
+    <t>临床医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>麻醉學</t>
+    <t>麻醉学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神醫學</t>
+    <t>精神医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E5%81%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>復健科學</t>
+    <t>复健科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>旅遊醫學</t>
+    <t>旅游医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>中醫學</t>
+    <t>中医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%B2%E5%90%A0%E9%99%80</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓醫學</t>
+    <t>韩医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E6%96%B9%E5%8C%BB%E5%AD%A6</t>
@@ -347,43 +344,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>藏醫學</t>
+    <t>藏医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙醫學</t>
+    <t>蒙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%8B%A2%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>順勢療法</t>
+    <t>顺势疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>代替醫療</t>
+    <t>代替医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E9%A9%97%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>檢驗醫學</t>
+    <t>检验医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>醫學影像</t>
+    <t>医学影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8C%BB%E5%AD%A6</t>
@@ -395,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>法醫學</t>
+    <t>法医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%95%B0%E5%AD%A6</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E7%8B%80</t>
   </si>
   <si>
-    <t>症狀</t>
+    <t>症状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -461,55 +458,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>專科醫生</t>
+    <t>专科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E9%86%AB%E5%AD%B8%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>家庭醫學科醫師</t>
+    <t>家庭医学科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>麻醉科醫生</t>
+    <t>麻醉科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>外科醫師</t>
+    <t>外科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>護理人員</t>
+    <t>护理人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%AA%A2%E9%A9%97%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事檢驗師</t>
+    <t>医事检验师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%8A%91%E5%B8%AB</t>
   </si>
   <si>
-    <t>藥劑師</t>
+    <t>药剂师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>物理治療師</t>
+    <t>物理治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>職能治療師</t>
+    <t>职能治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E6%B2%BB%E7%96%97%E5%B8%88</t>
@@ -521,61 +518,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%B8%AB</t>
   </si>
   <si>
-    <t>營養師</t>
+    <t>营养师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%94%BE%E5%B0%84%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事放射師</t>
+    <t>医事放射师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>藥物治療</t>
+    <t>药物治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>外科手術</t>
+    <t>外科手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>化學療法</t>
+    <t>化学疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>心理治療</t>
+    <t>心理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>物理治療</t>
+    <t>物理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>職能治療</t>
+    <t>职能治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>醫學史</t>
+    <t>医学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>診斷</t>
+    <t>诊断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E7%96%97</t>
@@ -605,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E5%81%A5%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>復健醫學</t>
+    <t>复健医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%A6</t>
@@ -635,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>微生物學</t>
+    <t>微生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>醫學倫理</t>
+    <t>医学伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E5%8C%BB%E5%AD%A6</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>科學革命</t>
+    <t>科学革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E5%8C%BB%E5%AD%A6</t>
@@ -725,9 +722,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%8F%B2</t>
   </si>
   <si>
-    <t>医学史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%8D%AF</t>
   </si>
   <si>
@@ -743,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A1%93</t>
   </si>
   <si>
-    <t>巫術</t>
+    <t>巫术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E9%AD%82%E8%A1%93</t>
   </si>
   <si>
-    <t>招魂術</t>
+    <t>招魂术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%BB%A1%E6%95%99</t>
@@ -785,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%86%AB</t>
   </si>
   <si>
-    <t>中醫</t>
+    <t>中医</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%8A%E7%94%9F</t>
   </si>
   <si>
-    <t>養生</t>
+    <t>养生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%8B%89%E5%B8%95</t>
@@ -809,9 +803,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E5%8C%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>牙医学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E8%8D%89%E7%BA%B8</t>
   </si>
   <si>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%83%9E%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -863,9 +854,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8A%9B%E5%AD%A6</t>
   </si>
   <si>
@@ -875,21 +863,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>力學</t>
+    <t>力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%A6</t>
   </si>
   <si>
-    <t>流行病学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%89%A9%E7%90%86</t>
   </si>
   <si>
@@ -911,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E5%B7%B4%E6%96%AF%E5%BE%B7</t>
@@ -923,13 +908,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>胚胎学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E7%88%BE%E8%92%99</t>
   </si>
   <si>
-    <t>荷爾蒙</t>
+    <t>荷尔蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85</t>
@@ -941,37 +923,34 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
+    <t>遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87%E5%AD%A6</t>
   </si>
   <si>
-    <t>组织学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E5%BE%AE%E9%8F%A1</t>
   </si>
   <si>
-    <t>顯微鏡</t>
+    <t>显微镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%A1%AF%E5%BE%AE%E9%8F%A1</t>
   </si>
   <si>
-    <t>電子顯微鏡</t>
+    <t>电子显微镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E7%B5%84%E7%B9%94%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>免疫組織化學</t>
+    <t>免疫组织化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%94%9F%E7%89%A9%E5%AD%A6)</t>
@@ -983,19 +962,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
   </si>
   <si>
-    <t>免疫学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>免疫系統</t>
+    <t>免疫系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E7%89%A9%E7%90%86</t>
   </si>
   <si>
-    <t>醫學物理</t>
+    <t>医学物理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9</t>
@@ -1007,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%94%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>原生動物</t>
+    <t>原生动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%8F%8C</t>
   </si>
   <si>
-    <t>細菌</t>
+    <t>细菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%8F%8C</t>
@@ -1031,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>分子生物學</t>
+    <t>分子生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA%E5%A4%8D%E5%88%B6</t>
@@ -1055,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學</t>
+    <t>神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神經系統</t>
+    <t>神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%84%91</t>
@@ -1079,15 +1055,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神经外科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%A6</t>
   </si>
   <si>
@@ -1097,9 +1070,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E5%85%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>营养学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E5%B0%BF%E7%97%85</t>
   </si>
   <si>
@@ -1109,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85</t>
   </si>
   <si>
-    <t>心臟病</t>
+    <t>心脏病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BF%E7%98%A4</t>
@@ -1121,9 +1091,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>药理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Photobiology</t>
   </si>
   <si>
@@ -1133,27 +1100,24 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B8%B8%E9%9B%A2%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>非游離輻射</t>
+    <t>非游离辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>放射生物學</t>
+    <t>放射生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%9B%A2%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>游離輻射</t>
+    <t>游离辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>毒理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%89%A9</t>
   </si>
   <si>
@@ -1169,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%BB%B2%E6%99%AF</t>
   </si>
   <si>
-    <t>張仲景</t>
+    <t>张仲景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9C%9D%E5%AE%8B</t>
@@ -1187,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%86%AB%E4%BB%A4</t>
   </si>
   <si>
-    <t>太醫令</t>
+    <t>太医令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E6%9C%9D</t>
@@ -1205,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫師</t>
+    <t>医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
@@ -1289,27 +1253,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E5%8C%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>基础医学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E5%8C%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>临床医学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%85%94%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>口腔醫學</t>
+    <t>口腔医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8C%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>中医学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E5%AD%A6</t>
   </si>
   <si>
@@ -1403,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%BB%8B%E7%97%85</t>
   </si>
   <si>
-    <t>愛滋病</t>
+    <t>爱滋病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%97%87</t>
@@ -1415,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>自主權</t>
+    <t>自主权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Beneficence_(ethics)</t>
@@ -1439,13 +1394,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%A0%E4%BF%A1</t>
   </si>
   <si>
-    <t>誠信</t>
+    <t>诚信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E5%9F%BA%E5%90%89%E6%A2%85%E6%AF%92%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>塔斯基吉梅毒試驗</t>
+    <t>塔斯基吉梅毒试验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Doctors%27_Trial</t>
@@ -1475,13 +1430,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E8%A1%80</t>
   </si>
   <si>
-    <t>輸血</t>
+    <t>输血</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%A4%96%E5%85%A8%E7%A7%91%E9%86%AB%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>內外全科醫學士</t>
+    <t>内外全科医学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%8D%9A%E5%A3%AB</t>
@@ -1499,9 +1454,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%8A%E6%96%AD</t>
   </si>
   <si>
-    <t>诊断</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E5%90%8E</t>
   </si>
   <si>
@@ -1529,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%B8%AB</t>
   </si>
   <si>
-    <t>藥師</t>
+    <t>药师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E6%AA%A2%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫檢師</t>
+    <t>医检师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E6%85%8E</t>
@@ -1547,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1571,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1977,13 +1929,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -2003,16 +1955,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -2032,16 +1984,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -2061,16 +2013,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -2090,16 +2042,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -2119,16 +2071,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -2148,16 +2100,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -2177,16 +2129,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -2206,16 +2158,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -2235,16 +2187,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2264,16 +2216,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -2293,16 +2245,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -2322,16 +2274,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2351,16 +2303,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -2380,16 +2332,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2409,16 +2361,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -2438,16 +2390,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2467,16 +2419,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -2496,16 +2448,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -2525,16 +2477,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2554,16 +2506,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -2583,16 +2535,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2612,16 +2564,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -2641,16 +2593,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -2670,16 +2622,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2699,16 +2651,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2728,16 +2680,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2757,16 +2709,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2786,16 +2738,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2815,16 +2767,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2844,16 +2796,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2873,16 +2825,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2902,16 +2854,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2931,16 +2883,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2960,16 +2912,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -2989,16 +2941,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -3018,16 +2970,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3047,16 +2999,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3076,16 +3028,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3105,16 +3057,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>82</v>
-      </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3134,16 +3086,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -3163,16 +3115,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -3192,16 +3144,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
       <c r="G44" t="n">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3221,16 +3173,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s">
-        <v>90</v>
-      </c>
       <c r="G45" t="n">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3250,16 +3202,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
       </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
       <c r="G46" t="n">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -3279,16 +3231,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
       </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3308,16 +3260,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3337,16 +3289,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -3366,16 +3318,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
       </c>
-      <c r="F50" t="s">
-        <v>100</v>
-      </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -3395,16 +3347,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
       </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -3424,16 +3376,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
       </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -3453,16 +3405,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -3482,16 +3434,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
       </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -3511,16 +3463,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
       </c>
-      <c r="F55" t="s">
-        <v>110</v>
-      </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -3540,16 +3492,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
       </c>
-      <c r="F56" t="s">
-        <v>112</v>
-      </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -3569,16 +3521,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
       </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -3598,16 +3550,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
       </c>
-      <c r="F58" t="s">
-        <v>116</v>
-      </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -3627,16 +3579,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -3656,16 +3608,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -3685,16 +3637,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
       </c>
-      <c r="F61" t="s">
-        <v>122</v>
-      </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3714,16 +3666,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
       </c>
-      <c r="F62" t="s">
-        <v>124</v>
-      </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -3743,16 +3695,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
       </c>
-      <c r="F63" t="s">
-        <v>126</v>
-      </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3772,16 +3724,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
       </c>
-      <c r="F64" t="s">
-        <v>128</v>
-      </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -3801,16 +3753,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
       </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -3830,16 +3782,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
       </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -3859,16 +3811,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
       </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -3888,16 +3840,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -3917,16 +3869,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
       </c>
-      <c r="F69" t="s">
-        <v>138</v>
-      </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -3946,16 +3898,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
       </c>
-      <c r="F70" t="s">
-        <v>140</v>
-      </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -3975,16 +3927,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
       </c>
-      <c r="F71" t="s">
-        <v>142</v>
-      </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4004,16 +3956,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
       </c>
-      <c r="F72" t="s">
-        <v>144</v>
-      </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -4033,16 +3985,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -4062,16 +4014,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
       </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -4091,16 +4043,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
       </c>
-      <c r="F75" t="s">
-        <v>150</v>
-      </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -4120,16 +4072,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
       </c>
-      <c r="F76" t="s">
-        <v>152</v>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -4149,16 +4101,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
       </c>
-      <c r="F77" t="s">
-        <v>154</v>
-      </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -4178,16 +4130,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -4207,16 +4159,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
       </c>
-      <c r="F79" t="s">
-        <v>158</v>
-      </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -4236,16 +4188,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
       </c>
-      <c r="F80" t="s">
-        <v>160</v>
-      </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -4265,16 +4217,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
       </c>
-      <c r="F81" t="s">
-        <v>162</v>
-      </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -4294,16 +4246,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
       </c>
-      <c r="F82" t="s">
-        <v>164</v>
-      </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -4323,16 +4275,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
       </c>
-      <c r="F83" t="s">
-        <v>166</v>
-      </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -4352,16 +4304,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -4381,16 +4333,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
       </c>
-      <c r="F85" t="s">
-        <v>170</v>
-      </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -4410,16 +4362,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
       </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -4439,16 +4391,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
       </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
       <c r="G87" t="n">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -4468,16 +4420,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
       </c>
-      <c r="F88" t="s">
-        <v>176</v>
-      </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -4497,16 +4449,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
       </c>
-      <c r="F89" t="s">
-        <v>178</v>
-      </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -4526,16 +4478,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -4555,16 +4507,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -4584,16 +4536,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
       </c>
-      <c r="F92" t="s">
-        <v>184</v>
-      </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -4613,16 +4565,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -4642,16 +4594,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -4671,16 +4623,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -4700,16 +4652,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -4729,16 +4681,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -4758,16 +4710,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
       </c>
-      <c r="F98" t="s">
-        <v>196</v>
-      </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -4787,16 +4739,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
       </c>
-      <c r="F99" t="s">
-        <v>198</v>
-      </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -4816,16 +4768,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -4845,16 +4797,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
       </c>
-      <c r="F101" t="s">
-        <v>202</v>
-      </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -4874,16 +4826,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>9</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -4903,16 +4855,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -4932,16 +4884,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
         <v>87</v>
-      </c>
-      <c r="F104" t="s">
-        <v>88</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -4961,16 +4913,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -4990,16 +4942,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -5019,16 +4971,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
       </c>
-      <c r="F107" t="s">
-        <v>212</v>
-      </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -5048,16 +5000,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -5077,16 +5029,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -5106,16 +5058,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
       </c>
-      <c r="F110" t="s">
-        <v>218</v>
-      </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -5135,16 +5087,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
       </c>
-      <c r="F111" t="s">
-        <v>220</v>
-      </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -5164,16 +5116,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -5193,16 +5145,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
       </c>
-      <c r="F113" t="s">
-        <v>224</v>
-      </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -5222,16 +5174,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -5251,16 +5203,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -5280,16 +5232,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
       </c>
-      <c r="F116" t="s">
-        <v>230</v>
-      </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -5309,16 +5261,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
       </c>
-      <c r="F117" t="s">
-        <v>232</v>
-      </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -5338,16 +5290,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
       </c>
-      <c r="F118" t="s">
-        <v>234</v>
-      </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -5367,16 +5319,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -5396,16 +5348,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -5425,16 +5377,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -5454,16 +5406,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -5483,16 +5435,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -5512,16 +5464,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -5541,16 +5493,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -5570,16 +5522,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -5599,16 +5551,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -5628,16 +5580,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -5657,16 +5609,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -5686,16 +5638,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -5715,16 +5667,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" t="s">
         <v>89</v>
       </c>
-      <c r="F131" t="s">
-        <v>90</v>
-      </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -5744,16 +5696,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -5773,16 +5725,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -5802,16 +5754,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -5831,16 +5783,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -5860,16 +5812,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -5889,16 +5841,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -5918,16 +5870,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -5947,16 +5899,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>132</v>
+      </c>
+      <c r="F139" t="s">
         <v>133</v>
       </c>
-      <c r="F139" t="s">
-        <v>134</v>
-      </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -5976,16 +5928,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -6005,16 +5957,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -6034,16 +5986,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -6063,16 +6015,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -6092,16 +6044,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -6121,16 +6073,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -6150,16 +6102,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -6179,16 +6131,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -6208,16 +6160,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -6237,16 +6189,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -6266,16 +6218,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -6295,16 +6247,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -6324,16 +6276,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -6353,16 +6305,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -6382,16 +6334,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -6411,16 +6363,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -6440,16 +6392,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -6469,16 +6421,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -6498,16 +6450,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -6527,16 +6479,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -6556,16 +6508,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -6585,16 +6537,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -6614,16 +6566,16 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -6643,16 +6595,16 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -6672,16 +6624,16 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -6701,16 +6653,16 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -6730,16 +6682,16 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -6759,16 +6711,16 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -6788,16 +6740,16 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -6817,16 +6769,16 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -6846,16 +6798,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -6875,16 +6827,16 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -6904,16 +6856,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -6933,16 +6885,16 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -6962,16 +6914,16 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -6991,16 +6943,16 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -7020,16 +6972,16 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -7049,16 +7001,16 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -7078,16 +7030,16 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -7107,16 +7059,16 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -7136,16 +7088,16 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -7165,16 +7117,16 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>202</v>
+      </c>
+      <c r="F181" t="s">
         <v>203</v>
-      </c>
-      <c r="F181" t="s">
-        <v>204</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -7194,16 +7146,16 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>46</v>
+      </c>
+      <c r="F182" t="s">
         <v>47</v>
       </c>
-      <c r="F182" t="s">
-        <v>48</v>
-      </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -7223,16 +7175,16 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -7252,16 +7204,16 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -7281,16 +7233,16 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -7310,16 +7262,16 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -7339,16 +7291,16 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -7368,16 +7320,16 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -7397,16 +7349,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -7426,16 +7378,16 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -7455,16 +7407,16 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -7484,16 +7436,16 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -7513,16 +7465,16 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -7542,16 +7494,16 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -7571,16 +7523,16 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -7600,16 +7552,16 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>22</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -7629,16 +7581,16 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -7658,16 +7610,16 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -7687,16 +7639,16 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -7716,16 +7668,16 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -7745,16 +7697,16 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -7774,16 +7726,16 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -7803,16 +7755,16 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -7832,16 +7784,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>6</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -7861,16 +7813,16 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -7890,16 +7842,16 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -7919,16 +7871,16 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -7948,16 +7900,16 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -7977,16 +7929,16 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -8006,16 +7958,16 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -8035,16 +7987,16 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -8064,16 +8016,16 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -8093,16 +8045,16 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -8122,16 +8074,16 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>6</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -8151,16 +8103,16 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -8180,16 +8132,16 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -8209,16 +8161,16 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -8238,16 +8190,16 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>91</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -8267,16 +8219,16 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -8296,16 +8248,16 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
       </c>
       <c r="H220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -8325,16 +8277,16 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -8354,16 +8306,16 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -8383,16 +8335,16 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G223" t="n">
         <v>7</v>
       </c>
       <c r="H223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -8412,16 +8364,16 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -8441,16 +8393,16 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -8470,16 +8422,16 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -8499,16 +8451,16 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -8528,16 +8480,16 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>6</v>
       </c>
       <c r="H228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -8557,16 +8509,16 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -8586,16 +8538,16 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -8615,16 +8567,16 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
       </c>
       <c r="H231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -8644,16 +8596,16 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -8673,16 +8625,16 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -8702,16 +8654,16 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -8731,16 +8683,16 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -8760,16 +8712,16 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -8789,16 +8741,16 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -8818,16 +8770,16 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -8847,16 +8799,16 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -8876,16 +8828,16 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -8905,16 +8857,16 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -8934,16 +8886,16 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -8963,16 +8915,16 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -8992,16 +8944,16 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -9021,16 +8973,16 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -9050,16 +9002,16 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
       </c>
       <c r="H246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -9079,16 +9031,16 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -9108,16 +9060,16 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -9137,16 +9089,16 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -9166,16 +9118,16 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -9195,16 +9147,16 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -9224,16 +9176,16 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>189</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -9253,16 +9205,16 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -9282,16 +9234,16 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
       </c>
       <c r="H254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -9311,16 +9263,16 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
@@ -9340,16 +9292,16 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -9369,16 +9321,16 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -9398,16 +9350,16 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -9427,16 +9379,16 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -9456,16 +9408,16 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -9485,16 +9437,16 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -9514,16 +9466,16 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -9543,16 +9495,16 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -9572,16 +9524,16 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -9601,16 +9553,16 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
